--- a/RPG_GM_TOOLS/Random Shops.xlsx
+++ b/RPG_GM_TOOLS/Random Shops.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Palant\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{314666D5-7F9D-43F6-8263-709390997E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="Town Sheet" sheetId="13" r:id="rId1"/>
@@ -27,19 +21,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Town Sheet'!$A$1:$Q$35</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2910,7 +2895,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3258,7 +3243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3289,12 +3273,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% – колірна тема 5" xfId="3" builtinId="47"/>
-    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
+    <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
     <dxf>
@@ -3882,29 +3867,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:H19" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A9:H19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:H19" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A9:H19"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Shop"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="First Name" dataDxfId="28">
+    <tableColumn id="1" name="Shop"/>
+    <tableColumn id="2" name="First Name" dataDxfId="28">
       <calculatedColumnFormula>INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Last Name" dataDxfId="27">
+    <tableColumn id="3" name="Last Name" dataDxfId="27">
       <calculatedColumnFormula>INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Race" dataDxfId="26">
+    <tableColumn id="4" name="Race" dataDxfId="26">
       <calculatedColumnFormula>INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Age" dataDxfId="25">
+    <tableColumn id="5" name="Age" dataDxfId="25">
       <calculatedColumnFormula>INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Look" dataDxfId="24">
+    <tableColumn id="6" name="Look" dataDxfId="24">
       <calculatedColumnFormula>INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Trait" dataDxfId="23">
+    <tableColumn id="7" name="Trait" dataDxfId="23">
       <calculatedColumnFormula>INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Trait2" dataDxfId="22">
+    <tableColumn id="8" name="Trait2" dataDxfId="22">
       <calculatedColumnFormula>INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3913,16 +3898,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="J15:L27" totalsRowShown="0">
-  <autoFilter ref="J15:L27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="J15:L27" totalsRowShown="0">
+  <autoFilter ref="J15:L27"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alchemist" dataDxfId="21">
+    <tableColumn id="1" name="Alchemist" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP((I16),Potions!A:E,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cost" dataDxfId="20">
+    <tableColumn id="2" name="Cost" dataDxfId="20">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((I16),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column1" dataDxfId="19">
+    <tableColumn id="3" name="Column1" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3931,16 +3916,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="J2:L8" totalsRowShown="0">
-  <autoFilter ref="J2:L8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="J2:L8" totalsRowShown="0">
+  <autoFilter ref="J2:L8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Blacksmith" dataDxfId="18">
+    <tableColumn id="1" name="Blacksmith" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP((I3),Blacksmith!A:E,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Cost" dataDxfId="17">
+    <tableColumn id="2" name="Cost" dataDxfId="17">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((I3),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="INV#" dataDxfId="16">
+    <tableColumn id="3" name="INV#" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3949,16 +3934,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="M2:O8" totalsRowShown="0">
-  <autoFilter ref="M2:O8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M2:O8" totalsRowShown="0">
+  <autoFilter ref="M2:O8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Jeweler" dataDxfId="15">
+    <tableColumn id="1" name="Jeweler" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP((L3),Jeweler!A:C,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Cost" dataDxfId="14">
+    <tableColumn id="2" name="Cost" dataDxfId="14">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((L3),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column1" dataDxfId="13">
+    <tableColumn id="3" name="Column1" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3967,13 +3952,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="P2:Q8" totalsRowShown="0">
-  <autoFilter ref="P2:Q8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="P2:Q8" totalsRowShown="0">
+  <autoFilter ref="P2:Q8"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Magic Items" dataDxfId="12">
+    <tableColumn id="1" name="Magic Items" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP((O3),Enchanter!A:C,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Cost" dataDxfId="11">
+    <tableColumn id="2" name="Cost" dataDxfId="11">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((O3),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3982,13 +3967,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="M15:N21" totalsRowShown="0">
-  <autoFilter ref="M15:N21" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="M15:N21" totalsRowShown="0">
+  <autoFilter ref="M15:N21"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Magic Arms" dataDxfId="10">
+    <tableColumn id="1" name="Magic Arms" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP((L16),MagicWeapons!A:C,3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Cost" dataDxfId="9">
+    <tableColumn id="2" name="Cost" dataDxfId="9">
       <calculatedColumnFormula>PRODUCT(VLOOKUP((L16),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3997,10 +3982,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="I2:I8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="I2:I8" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="I2:I8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="I2:I8"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="INV#" dataDxfId="5">
+    <tableColumn id="1" name="INV#" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4009,10 +3994,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table11" displayName="Table11" ref="I15:I27" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="I15:I27" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="I15:I27" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="I15:I27"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="INV#" dataDxfId="2">
+    <tableColumn id="1" name="INV#" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4021,18 +4006,18 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table3" displayName="Table3" ref="A1:D291" totalsRowShown="0">
-  <autoFilter ref="A1:D291" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D291" totalsRowShown="0">
+  <autoFilter ref="A1:D291"/>
+  <sortState ref="A2:D291">
     <sortCondition descending="1" ref="B1:B291"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Cumulative">
+    <tableColumn id="1" name="Cumulative">
       <calculatedColumnFormula>+A1+B1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Weighting"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Item" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Cost" dataDxfId="0"/>
+    <tableColumn id="2" name="Weighting"/>
+    <tableColumn id="3" name="Item" dataDxfId="1"/>
+    <tableColumn id="4" name="Cost" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4327,18 +4312,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="59" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="59" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4365,18 +4350,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>919</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -4387,17 +4372,17 @@
       </c>
       <c r="B2" s="20" t="str">
         <f ca="1">INDEX(ShopNames!A:A,RANDBETWEEN(2,COUNTA(ShopNames!A:A))&amp;" ")</f>
-        <v>The Sunken</v>
+        <v>Val'haren's</v>
       </c>
       <c r="C2" s="20" t="str">
         <f ca="1">INDEX(ShopNames!B:B,RANDBETWEEN(2,COUNTA(ShopNames!B:B))&amp;" ")</f>
-        <v>Kiss</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+        <v>Flagon</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="22" t="s">
         <v>927</v>
       </c>
@@ -4432,17 +4417,17 @@
       </c>
       <c r="B3" s="20" t="str">
         <f ca="1">INDEX(ShopNames!C:C,RANDBETWEEN(2,COUNTA(ShopNames!C:C))&amp;" ")</f>
-        <v>Alchemical</v>
+        <v>Fernshaper's</v>
       </c>
       <c r="C3" s="20" t="str">
         <f ca="1">INDEX(ShopNames!D:D,RANDBETWEEN(2,COUNTA(ShopNames!D:D))&amp;" ")</f>
-        <v>Philtres</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+        <v>Beakers</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
         <v>0</v>
@@ -4457,27 +4442,27 @@
       </c>
       <c r="L3" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>8600</v>
+        <v>16700</v>
       </c>
       <c r="M3" s="18" t="str">
         <f ca="1">VLOOKUP((L3),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of Warmth</v>
+        <v>Ring of Shooting Stars</v>
       </c>
       <c r="N3">
         <f ca="1">PRODUCT(VLOOKUP((L3),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>1070</v>
+        <v>11480</v>
       </c>
       <c r="O3">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>45000</v>
+        <v>37000</v>
       </c>
       <c r="P3" s="18" t="str">
         <f ca="1">VLOOKUP((O3),Enchanter!A:C,3,TRUE)</f>
-        <v>Periapt of Health</v>
+        <v>Instrument of the Bards, Doss Lute</v>
       </c>
       <c r="Q3">
         <f ca="1">PRODUCT(VLOOKUP((O3),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>4250</v>
+        <v>33915</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4486,52 +4471,52 @@
       </c>
       <c r="B4" s="20" t="str">
         <f ca="1">INDEX(ShopNames!E:E,RANDBETWEEN(2,COUNTA(ShopNames!E:E))&amp;" ")</f>
-        <v>Hot Pokers and</v>
+        <v>High Pressure</v>
       </c>
       <c r="C4" s="20" t="str">
         <f ca="1">INDEX(ShopNames!F:F,RANDBETWEEN(2,COUNTA(ShopNames!F:F))&amp;" ")</f>
         <v>Arsenal</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>38500</v>
+        <v>54900</v>
       </c>
       <c r="J4" s="18" t="str">
         <f ca="1">VLOOKUP((I4),Blacksmith!A:E,3,TRUE)</f>
-        <v>Armor, +2</v>
+        <v>Berserker Axe</v>
       </c>
       <c r="K4">
         <f ca="1">PRODUCT(VLOOKUP((I4),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>5280</v>
+        <v>5250</v>
       </c>
       <c r="L4" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>7400</v>
+        <v>15200</v>
       </c>
       <c r="M4" s="18" t="str">
         <f ca="1">VLOOKUP((L4),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of Swimming</v>
+        <v>Ring of X-ray Vision</v>
       </c>
       <c r="N4">
         <f ca="1">PRODUCT(VLOOKUP((L4),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>3389.9999999999995</v>
+        <v>5220</v>
       </c>
       <c r="O4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>29000</v>
+        <v>46000</v>
       </c>
       <c r="P4" s="18" t="str">
         <f ca="1">VLOOKUP((O4),Enchanter!A:C,3,TRUE)</f>
-        <v>Gloves of Missile Snaring</v>
+        <v>Periapt of Wound Closure</v>
       </c>
       <c r="Q4">
         <f ca="1">PRODUCT(VLOOKUP((O4),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>3270.0000000000005</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4540,52 +4525,52 @@
       </c>
       <c r="B5" s="20" t="str">
         <f ca="1">INDEX(ShopNames!G:G,RANDBETWEEN(2,COUNTA(ShopNames!G:G))&amp;" ")</f>
-        <v>Samuel's</v>
+        <v>Rewalt's</v>
       </c>
       <c r="C5" s="20" t="str">
         <f ca="1">INDEX(ShopNames!H:H,RANDBETWEEN(2,COUNTA(ShopNames!H:H))&amp;" ")</f>
-        <v>Chokers</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+        <v>Amulets</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>70400</v>
+        <v>43900</v>
       </c>
       <c r="J5" s="18" t="str">
         <f ca="1">VLOOKUP((I5),Blacksmith!A:E,3,TRUE)</f>
-        <v>Nine Lives Stealer</v>
+        <v>Javelin of Lightning</v>
       </c>
       <c r="K5">
         <f ca="1">PRODUCT(VLOOKUP((I5),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>8000</v>
+        <v>1470</v>
       </c>
       <c r="L5" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>9800</v>
+        <v>7400</v>
       </c>
       <c r="M5" s="18" t="str">
         <f ca="1">VLOOKUP((L5),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of Water Walking</v>
+        <v>Ring of Swimming</v>
       </c>
       <c r="N5">
         <f ca="1">PRODUCT(VLOOKUP((L5),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>1770</v>
+        <v>2760</v>
       </c>
       <c r="O5">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>19000</v>
+        <v>61500</v>
       </c>
       <c r="P5" s="18" t="str">
         <f ca="1">VLOOKUP((O5),Enchanter!A:C,3,TRUE)</f>
-        <v>Dust of Dryness</v>
+        <v>Bowl of Commanding Water Elementals</v>
       </c>
       <c r="Q5">
         <f ca="1">PRODUCT(VLOOKUP((O5),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>100.8</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4594,52 +4579,52 @@
       </c>
       <c r="B6" s="20" t="str">
         <f ca="1">INDEX(ShopNames!I:I,RANDBETWEEN(2,COUNTA(ShopNames!I:I))&amp;" ")</f>
-        <v>Swulfa's</v>
+        <v>Elelror's</v>
       </c>
       <c r="C6" s="20" t="str">
         <f ca="1">INDEX(ShopNames!J:J,RANDBETWEEN(2,COUNTA(ShopNames!J:J))&amp;" ")</f>
-        <v>Wizardry</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+        <v>Magnificence</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>72400</v>
+        <v>0</v>
       </c>
       <c r="J6" s="18" t="str">
         <f ca="1">VLOOKUP((I6),Blacksmith!A:E,3,TRUE)</f>
-        <v>Weapon, +3</v>
+        <v>No Armor In Stock</v>
       </c>
       <c r="K6">
         <f ca="1">PRODUCT(VLOOKUP((I6),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="L6" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="M6" s="18" t="str">
         <f ca="1">VLOOKUP((L6),Jeweler!A:C,3,TRUE)</f>
-        <v>No Magic Rings</v>
+        <v>Ring of Resistance</v>
       </c>
       <c r="N6">
         <f ca="1">PRODUCT(VLOOKUP((L6),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>0</v>
+        <v>6959.9999999999991</v>
       </c>
       <c r="O6">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>36000</v>
+        <v>77000</v>
       </c>
       <c r="P6" s="18" t="str">
         <f ca="1">VLOOKUP((O6),Enchanter!A:C,3,TRUE)</f>
-        <v>Helm of Telepathy</v>
+        <v>Ioun Stone, Sustenance</v>
       </c>
       <c r="Q6">
         <f ca="1">PRODUCT(VLOOKUP((O6),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>11040</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4648,17 +4633,17 @@
       </c>
       <c r="B7" s="20" t="str">
         <f ca="1">INDEX(ShopNames!K:K,RANDBETWEEN(2,COUNTA(ShopNames!K:K))&amp;" ")</f>
-        <v>Stillwind's</v>
+        <v>Ariel's</v>
       </c>
       <c r="C7" s="20" t="str">
         <f ca="1">INDEX(ShopNames!L:L,RANDBETWEEN(2,COUNTA(ShopNames!L:L))&amp;" ")</f>
-        <v>Rods</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+        <v>Wands</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
         <v>0</v>
@@ -4673,73 +4658,73 @@
       </c>
       <c r="L7" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>16700</v>
+        <v>12800</v>
       </c>
       <c r="M7" s="18" t="str">
         <f ca="1">VLOOKUP((L7),Jeweler!A:C,3,TRUE)</f>
-        <v>Ring of Shooting Stars</v>
+        <v>Ring of Free Action</v>
       </c>
       <c r="N7">
         <f ca="1">PRODUCT(VLOOKUP((L7),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>15819.999999999998</v>
+        <v>23600</v>
       </c>
       <c r="O7">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>91500</v>
+        <v>84600</v>
       </c>
       <c r="P7" s="18" t="str">
         <f ca="1">VLOOKUP((O7),Enchanter!A:C,3,TRUE)</f>
-        <v>Talisman of Pure Good</v>
+        <v>Crystal Ball</v>
       </c>
       <c r="Q7">
         <f ca="1">PRODUCT(VLOOKUP((O7),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>76697.600000000006</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Blacksmith!A:A&lt;&gt;""),Blacksmith!A:A)),Blacksmith!A:C,1,TRUE)</f>
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="J8" s="18" t="str">
         <f ca="1">VLOOKUP((I8),Blacksmith!A:E,3,TRUE)</f>
-        <v>No Armor In Stock</v>
+        <v>Shield, +2</v>
       </c>
       <c r="K8">
         <f ca="1">PRODUCT(VLOOKUP((I8),Blacksmith!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>0</v>
+        <v>7020</v>
       </c>
       <c r="L8" s="26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Jeweler!A:A&lt;&gt;""),Jeweler!A:A)),Jeweler!A:C,1,TRUE)</f>
-        <v>0</v>
+        <v>15800</v>
       </c>
       <c r="M8" s="18" t="str">
         <f ca="1">VLOOKUP((L8),Jeweler!A:C,3,TRUE)</f>
-        <v>No Magic Rings</v>
+        <v>Ring of the Ram</v>
       </c>
       <c r="N8">
         <f ca="1">PRODUCT(VLOOKUP((L8),Jeweler!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>0</v>
+        <v>5350</v>
       </c>
       <c r="O8">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Enchanter!A:A&lt;&gt;""),Enchanter!A:A)),Enchanter!A:C,1,TRUE)</f>
-        <v>84800</v>
+        <v>76500</v>
       </c>
       <c r="P8" s="18" t="str">
         <f ca="1">VLOOKUP((O8),Enchanter!A:C,3,TRUE)</f>
-        <v>Efreeti Bottle</v>
+        <v>Ioun Stone, Reserve</v>
       </c>
       <c r="Q8">
         <f ca="1">PRODUCT(VLOOKUP((O8),Enchanter!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>56499.999999999993</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4775,31 +4760,31 @@
       </c>
       <c r="B10" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Gwali</v>
+        <v>Cece</v>
       </c>
       <c r="C10" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Lonespark</v>
+        <v>Val'haren</v>
       </c>
       <c r="D10" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Elf</v>
+        <v>Gnome</v>
       </c>
       <c r="E10" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Young</v>
+        <v>Child</v>
       </c>
       <c r="F10" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Long braids</v>
+        <v>Braided Beard Or Hair</v>
       </c>
       <c r="G10" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Wise</v>
+        <v>Jovial</v>
       </c>
       <c r="H10" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Speak in Rhyme</v>
+        <v>Terrible Negotiator</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -4809,15 +4794,15 @@
       </c>
       <c r="B11" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Elyn</v>
+        <v>Enelron</v>
       </c>
       <c r="C11" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Hawkcloud</v>
+        <v>Fernshaper</v>
       </c>
       <c r="D11" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Half-Orc</v>
+        <v>Elf</v>
       </c>
       <c r="E11" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
@@ -4825,15 +4810,15 @@
       </c>
       <c r="F11" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Weird Posture</v>
+        <v>Pale skin, red hair</v>
       </c>
       <c r="G11" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Friendly</v>
+        <v>Argumentative</v>
       </c>
       <c r="H11" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>High Voice</v>
+        <v>Speak in Rhyme</v>
       </c>
       <c r="I11" s="19"/>
     </row>
@@ -4843,31 +4828,31 @@
       </c>
       <c r="B12" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Kunain</v>
+        <v>Erehrt</v>
       </c>
       <c r="C12" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Winterarm</v>
+        <v>Pyreblade</v>
       </c>
       <c r="D12" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Tiefling</v>
+        <v>Human</v>
       </c>
       <c r="E12" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Child</v>
+        <v>Middle Aged</v>
       </c>
       <c r="F12" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Beautiful</v>
+        <v>Ashen Hair</v>
       </c>
       <c r="G12" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Grumpy</v>
-      </c>
-      <c r="H12" s="19" t="str">
+        <v>Tired</v>
+      </c>
+      <c r="H12" s="19">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>High Voice</v>
+        <v>0</v>
       </c>
       <c r="I12" s="19"/>
     </row>
@@ -4877,31 +4862,31 @@
       </c>
       <c r="B13" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Samuel</v>
+        <v>Rewalt</v>
       </c>
       <c r="C13" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Deepwater</v>
+        <v>Seatail</v>
       </c>
       <c r="D13" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Dragonborn</v>
+        <v>Halfling</v>
       </c>
       <c r="E13" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Young</v>
+        <v>Old</v>
       </c>
       <c r="F13" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Long dark hair</v>
+        <v>Tattoos</v>
       </c>
       <c r="G13" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Arrogant</v>
+        <v>Honest</v>
       </c>
       <c r="H13" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Tap Fingers</v>
+        <v>Speak in Rhyme</v>
       </c>
       <c r="I13" s="19"/>
     </row>
@@ -4911,11 +4896,11 @@
       </c>
       <c r="B14" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Swulfa</v>
+        <v>Elelror</v>
       </c>
       <c r="C14" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Deepwater</v>
+        <v>Embertalon</v>
       </c>
       <c r="D14" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
@@ -4927,15 +4912,15 @@
       </c>
       <c r="F14" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Missing Fingers</v>
+        <v>Formal Clothes</v>
       </c>
       <c r="G14" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Grumpy</v>
+        <v>Intelligent</v>
       </c>
       <c r="H14" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Bite His Fingernails</v>
+        <v>CAN'T speak to women</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="1"/>
@@ -4946,15 +4931,15 @@
       </c>
       <c r="B15" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Kada</v>
+        <v>Ariel</v>
       </c>
       <c r="C15" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Stillwind</v>
+        <v>Lonespark</v>
       </c>
       <c r="D15" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Half-Orc</v>
+        <v>Human</v>
       </c>
       <c r="E15" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
@@ -4962,15 +4947,15 @@
       </c>
       <c r="F15" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Eye Twitch</v>
+        <v>Jewelry (choker)</v>
       </c>
       <c r="G15" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Ponderous</v>
+        <v>Kind</v>
       </c>
       <c r="H15" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>High Voice</v>
+        <v>Use Long Words</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>927</v>
@@ -5000,15 +4985,15 @@
       </c>
       <c r="B16" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Odwyth</v>
+        <v>Giles</v>
       </c>
       <c r="C16" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Stoneflaw</v>
+        <v>Val'haren</v>
       </c>
       <c r="D16" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Human</v>
+        <v>Drow</v>
       </c>
       <c r="E16" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
@@ -5016,39 +5001,39 @@
       </c>
       <c r="F16" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Birthmark</v>
+        <v>Unusual Hair Color</v>
       </c>
       <c r="G16" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Shrewd</v>
+        <v>Helpful</v>
       </c>
       <c r="H16" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Boistrous</v>
+        <v>Hums</v>
       </c>
       <c r="I16" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="J16" s="18" t="str">
         <f ca="1">VLOOKUP((I16),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Stone Giant Strength</v>
+        <v>Potion of Superior Healing</v>
       </c>
       <c r="K16">
         <f ca="1">PRODUCT(VLOOKUP((I16),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>480</v>
+        <v>490.50000000000006</v>
       </c>
       <c r="L16">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>4900</v>
+        <v>18000</v>
       </c>
       <c r="M16" s="18" t="str">
         <f ca="1">VLOOKUP((L16),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Staff of Power</v>
+        <v>Tentacle Rod</v>
       </c>
       <c r="N16">
         <f ca="1">PRODUCT(VLOOKUP((L16),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>103140</v>
+        <v>4850</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>371</v>
@@ -5060,55 +5045,55 @@
       </c>
       <c r="B17" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Burguia</v>
+        <v>Odwyth</v>
       </c>
       <c r="C17" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Shadowspell</v>
+        <v>Mourningstrength</v>
       </c>
       <c r="D17" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Drow</v>
+        <v>Human</v>
       </c>
       <c r="E17" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Old</v>
+        <v>Middle Aged</v>
       </c>
       <c r="F17" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Ugly</v>
+        <v>Eye Twitch</v>
       </c>
       <c r="G17" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Quiet</v>
-      </c>
-      <c r="H17" s="19">
+        <v>Ponderous</v>
+      </c>
+      <c r="H17" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>0</v>
+        <v>Optimistic</v>
       </c>
       <c r="I17" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>12300</v>
+        <v>22750</v>
       </c>
       <c r="J17" s="18" t="str">
         <f ca="1">VLOOKUP((I17),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Poison</v>
+        <v>Potion of Supreme Healing</v>
       </c>
       <c r="K17">
         <f ca="1">PRODUCT(VLOOKUP((I17),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>83</v>
+        <v>1417.5</v>
       </c>
       <c r="L17">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>11100</v>
+        <v>18000</v>
       </c>
       <c r="M17" s="18" t="str">
         <f ca="1">VLOOKUP((L17),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Wand of Enemy Detection</v>
+        <v>Tentacle Rod</v>
       </c>
       <c r="N17">
         <f ca="1">PRODUCT(VLOOKUP((L17),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>4440</v>
+        <v>5100</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>924</v>
@@ -5120,55 +5105,55 @@
       </c>
       <c r="B18" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Cirdire</v>
+        <v>Swulfa</v>
       </c>
       <c r="C18" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Meadowslayer</v>
+        <v>Hardshot</v>
       </c>
       <c r="D18" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Elf</v>
+        <v>Half-Orc</v>
       </c>
       <c r="E18" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
-        <v>Middle Aged</v>
+        <v>Old</v>
       </c>
       <c r="F18" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Unusual Skin Color</v>
+        <v>Unusual Hair Color</v>
       </c>
       <c r="G18" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Quiet</v>
+        <v>Honest</v>
       </c>
       <c r="H18" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Squint</v>
+        <v>Sucker for a Pretty Face</v>
       </c>
       <c r="I18" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>9000</v>
+        <v>10300</v>
       </c>
       <c r="J18" s="18" t="str">
         <f ca="1">VLOOKUP((I18),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Greater Healing</v>
+        <v>Potion of Growth</v>
       </c>
       <c r="K18">
         <f ca="1">PRODUCT(VLOOKUP((I18),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>139.5</v>
+        <v>272.7</v>
       </c>
       <c r="L18">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>8600</v>
+        <v>15000</v>
       </c>
       <c r="M18" s="18" t="str">
         <f ca="1">VLOOKUP((L18),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Wand of Web</v>
+        <v>Immovable Rod</v>
       </c>
       <c r="N18">
         <f ca="1">PRODUCT(VLOOKUP((L18),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>6480</v>
+        <v>4100</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>925</v>
@@ -5180,15 +5165,15 @@
       </c>
       <c r="B19" s="19" t="str">
         <f ca="1">INDEX(NPCs!A:A,RANDBETWEEN(2,COUNTA(NPCs!A:A)))</f>
-        <v>Akal</v>
+        <v>Nimrime</v>
       </c>
       <c r="C19" s="19" t="str">
         <f ca="1">INDEX(NPCs!B:B,RANDBETWEEN(2,COUNTA(NPCs!B:B)))</f>
-        <v>Stilloak</v>
+        <v>Mistrock</v>
       </c>
       <c r="D19" s="19" t="str">
         <f ca="1">INDEX(NPCs!C:C,RANDBETWEEN(2,COUNTA(NPCs!C:C)))</f>
-        <v>Human</v>
+        <v>Dragonborn</v>
       </c>
       <c r="E19" s="19" t="str">
         <f ca="1">INDEX(NPCs!D:D,RANDBETWEEN(2,COUNTA(NPCs!D:D)))</f>
@@ -5196,91 +5181,91 @@
       </c>
       <c r="F19" s="19" t="str">
         <f ca="1">INDEX(NPCs!E:E,RANDBETWEEN(2,COUNTA(NPCs!E:E)))</f>
-        <v>Birthmark</v>
+        <v>Ashen Hair</v>
       </c>
       <c r="G19" s="19" t="str">
         <f ca="1">INDEX(NPCs!F:F,RANDBETWEEN(2,COUNTA(NPCs!F:F)))</f>
-        <v>Ponderous</v>
+        <v>Wise</v>
       </c>
       <c r="H19" s="19" t="str">
         <f ca="1">INDEX(NPCs!G:G,RANDBETWEEN(2,COUNTA(NPCs!G:G)))</f>
-        <v>Fidget</v>
+        <v>Uses Wrong Words</v>
       </c>
       <c r="I19" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>20300</v>
+        <v>8000</v>
       </c>
       <c r="J19" s="18" t="str">
         <f ca="1">VLOOKUP((I19),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Stone Giant Strength</v>
+        <v>Potion of Fire Breath</v>
       </c>
       <c r="K19">
         <f ca="1">PRODUCT(VLOOKUP((I19),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>436.00000000000006</v>
+        <v>136.5</v>
       </c>
       <c r="L19">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M19" s="18" t="str">
         <f ca="1">VLOOKUP((L19),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Staff of Withering</v>
+        <v>Staff of Fire</v>
       </c>
       <c r="N19">
         <f ca="1">PRODUCT(VLOOKUP((L19),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>2760</v>
+        <v>12960</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>10300</v>
+        <v>14300</v>
       </c>
       <c r="J20" s="18" t="str">
         <f ca="1">VLOOKUP((I20),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Growth</v>
+        <v>Potion of Water Breathing</v>
       </c>
       <c r="K20">
         <f ca="1">PRODUCT(VLOOKUP((I20),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>275.39999999999998</v>
+        <v>199.8</v>
       </c>
       <c r="L20">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>12600</v>
+        <v>16000</v>
       </c>
       <c r="M20" s="18" t="str">
         <f ca="1">VLOOKUP((L20),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Wand of Lightning Bolts</v>
+        <v>Rod of the Pact Keeper, +1</v>
       </c>
       <c r="N20">
         <f ca="1">PRODUCT(VLOOKUP((L20),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>37120</v>
+        <v>13799.999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I21" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>9000</v>
+        <v>11300</v>
       </c>
       <c r="J21" s="18" t="str">
         <f ca="1">VLOOKUP((I21),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Greater Healing</v>
+        <v>Potion of Hill Giant Strength</v>
       </c>
       <c r="K21">
         <f ca="1">PRODUCT(VLOOKUP((I21),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>174</v>
+        <v>224.00000000000003</v>
       </c>
       <c r="L21">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(MagicWeapons!A:A&lt;&gt;""),MagicWeapons!A:A)),MagicWeapons!A:C,1,TRUE)</f>
-        <v>16000</v>
+        <v>11600</v>
       </c>
       <c r="M21" s="25" t="str">
         <f ca="1">VLOOKUP((L21),MagicWeapons!A:C,3,TRUE)</f>
-        <v>Rod of the Pact Keeper, +1</v>
+        <v>Wand of Fear</v>
       </c>
       <c r="N21">
         <f ca="1">PRODUCT(VLOOKUP((L21),MagicWeapons!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>9600</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5297,210 +5282,210 @@
       </c>
       <c r="K22">
         <f ca="1">PRODUCT(VLOOKUP((I22),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>41.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>921</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39" t="s">
         <v>922</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="40" t="s">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="39" t="s">
         <v>931</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="J23" s="18" t="str">
         <f ca="1">VLOOKUP((I23),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Fire Breath</v>
+        <v>Oil of Slipperiness</v>
       </c>
       <c r="K23">
         <f ca="1">PRODUCT(VLOOKUP((I23),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>168.00000000000003</v>
+        <v>398.4</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J24" s="18" t="str">
         <f ca="1">VLOOKUP((I24),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Healing</v>
+        <v>Oil of Slipperiness</v>
       </c>
       <c r="K24">
         <f ca="1">PRODUCT(VLOOKUP((I24),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>46.5</v>
+        <v>513.6</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>19800</v>
+        <v>19300</v>
       </c>
       <c r="J25" s="18" t="str">
         <f ca="1">VLOOKUP((I25),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Mind Reading</v>
+        <v>Potion of Invulnerability</v>
       </c>
       <c r="K25">
         <f ca="1">PRODUCT(VLOOKUP((I25),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>163.80000000000001</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>10300</v>
+        <v>2000</v>
       </c>
       <c r="J26" s="18" t="str">
         <f ca="1">VLOOKUP((I26),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Growth</v>
+        <v>Potion of Healing</v>
       </c>
       <c r="K26">
         <f ca="1">PRODUCT(VLOOKUP((I26),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>275.39999999999998</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="24">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="J27" s="18" t="str">
         <f ca="1">VLOOKUP((I27),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Resistance</v>
+        <v>Potion of Climbing</v>
       </c>
       <c r="K27">
         <f ca="1">PRODUCT(VLOOKUP((I27),Potions!A:D,4,TRUE),RANDBETWEEN(-20,20)%+1)</f>
-        <v>342.00000000000006</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5515,9 +5500,9 @@
     <mergeCell ref="F23:H35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" location="Armor&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={6F80A50E-1966-4BD1-986E-8CBCDE2F5A40}&amp;end" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P17" r:id="rId2" location="Equipment&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={41A613C2-8346-4675-957F-6DAA8C321CD5}&amp;end" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="P18" r:id="rId3" location="Spellcasting%20Services&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={E0F06FA4-1744-4AB9-872F-8A7D6938F1A6}&amp;end" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P16" r:id="rId1" location="Armor&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={6F80A50E-1966-4BD1-986E-8CBCDE2F5A40}&amp;end"/>
+    <hyperlink ref="P17" r:id="rId2" location="Equipment&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={41A613C2-8346-4675-957F-6DAA8C321CD5}&amp;end"/>
+    <hyperlink ref="P18" r:id="rId3" location="Spellcasting%20Services&amp;section-id={7DA77967-9A0E-408A-B18F-5624CA1223BD}&amp;page-id={E0F06FA4-1744-4AB9-872F-8A7D6938F1A6}&amp;end"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="landscape" r:id="rId4"/>
@@ -5538,10 +5523,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D291"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" workbookViewId="0">
+    <sheetView topLeftCell="A266" workbookViewId="0">
       <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
@@ -9923,7 +9908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10158,13 +10143,13 @@
       <c r="H6" t="s">
         <v>879</v>
       </c>
-      <c r="I6" s="31" t="str">
+      <c r="I6" s="41" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Swulfa's</v>
-      </c>
-      <c r="K6" s="31" t="str">
+        <v>Elelror's</v>
+      </c>
+      <c r="K6" s="41" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Kada's</v>
+        <v>Ariel's</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -10192,13 +10177,13 @@
       <c r="H7" t="s">
         <v>880</v>
       </c>
-      <c r="I7" s="31" t="str">
+      <c r="I7" s="41" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Swulfa's</v>
-      </c>
-      <c r="K7" s="31" t="str">
+        <v>Elelror's</v>
+      </c>
+      <c r="K7" s="41" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Kada's</v>
+        <v>Ariel's</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -10214,27 +10199,27 @@
       <c r="D8" t="s">
         <v>869</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="41" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Kunain's</v>
+        <v>Erehrt's</v>
       </c>
       <c r="F8" t="s">
         <v>875</v>
       </c>
-      <c r="G8" s="31" t="str">
+      <c r="G8" s="41" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Samuel's</v>
+        <v>Rewalt's</v>
       </c>
       <c r="H8" t="s">
         <v>881</v>
       </c>
-      <c r="I8" s="31" t="str">
+      <c r="I8" s="41" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Swulfa's</v>
-      </c>
-      <c r="K8" s="31" t="str">
+        <v>Elelror's</v>
+      </c>
+      <c r="K8" s="41" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Kada's</v>
+        <v>Ariel's</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -10247,27 +10232,27 @@
       <c r="C9" t="s">
         <v>870</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="41" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Kunain's</v>
+        <v>Erehrt's</v>
       </c>
       <c r="F9" t="s">
         <v>877</v>
       </c>
-      <c r="G9" s="31" t="str">
+      <c r="G9" s="41" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Samuel's</v>
+        <v>Rewalt's</v>
       </c>
       <c r="H9" t="s">
         <v>882</v>
       </c>
-      <c r="I9" s="31" t="str">
+      <c r="I9" s="41" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Swulfa's</v>
-      </c>
-      <c r="K9" s="31" t="str">
+        <v>Elelror's</v>
+      </c>
+      <c r="K9" s="41" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Kada's</v>
+        <v>Ariel's</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -10277,28 +10262,28 @@
       <c r="B10" t="s">
         <v>861</v>
       </c>
-      <c r="C10" s="31" t="str">
+      <c r="C10" s="41" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Elyn's</v>
-      </c>
-      <c r="E10" s="31" t="str">
+        <v>Enelron's</v>
+      </c>
+      <c r="E10" s="41" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Kunain's</v>
-      </c>
-      <c r="G10" s="31" t="str">
+        <v>Erehrt's</v>
+      </c>
+      <c r="G10" s="41" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Samuel's</v>
+        <v>Rewalt's</v>
       </c>
       <c r="H10" t="s">
         <v>883</v>
       </c>
-      <c r="I10" s="31" t="str">
+      <c r="I10" s="41" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Swulfa's</v>
-      </c>
-      <c r="K10" s="31" t="str">
+        <v>Elelror's</v>
+      </c>
+      <c r="K10" s="41" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Kada's</v>
+        <v>Ariel's</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -10308,25 +10293,25 @@
       <c r="B11" t="s">
         <v>863</v>
       </c>
-      <c r="C11" s="31" t="str">
+      <c r="C11" s="41" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Elyn's</v>
-      </c>
-      <c r="E11" s="31" t="str">
+        <v>Enelron's</v>
+      </c>
+      <c r="E11" s="41" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Kunain's</v>
-      </c>
-      <c r="G11" s="31" t="str">
+        <v>Erehrt's</v>
+      </c>
+      <c r="G11" s="41" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Samuel's</v>
-      </c>
-      <c r="I11" s="31" t="str">
+        <v>Rewalt's</v>
+      </c>
+      <c r="I11" s="41" t="str">
         <f ca="1">'Town Sheet'!B$14 &amp; "'s"</f>
-        <v>Swulfa's</v>
-      </c>
-      <c r="K11" s="31" t="str">
+        <v>Elelror's</v>
+      </c>
+      <c r="K11" s="41" t="str">
         <f ca="1">'Town Sheet'!B$15 &amp; "'s"</f>
-        <v>Kada's</v>
+        <v>Ariel's</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -10336,208 +10321,208 @@
       <c r="B12" t="s">
         <v>874</v>
       </c>
-      <c r="C12" s="31" t="str">
+      <c r="C12" s="41" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Elyn's</v>
-      </c>
-      <c r="E12" s="31" t="str">
+        <v>Enelron's</v>
+      </c>
+      <c r="E12" s="41" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Kunain's</v>
-      </c>
-      <c r="G12" s="31" t="str">
+        <v>Erehrt's</v>
+      </c>
+      <c r="G12" s="41" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Samuel's</v>
-      </c>
-      <c r="I12" s="31" t="str">
+        <v>Rewalt's</v>
+      </c>
+      <c r="I12" s="41" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Deepwater's</v>
-      </c>
-      <c r="K12" s="31" t="str">
+        <v>Embertalon's</v>
+      </c>
+      <c r="K12" s="41" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Stillwind's</v>
+        <v>Lonespark's</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>859</v>
       </c>
-      <c r="C13" s="31" t="str">
+      <c r="C13" s="41" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Elyn's</v>
-      </c>
-      <c r="E13" s="31" t="str">
+        <v>Enelron's</v>
+      </c>
+      <c r="E13" s="41" t="str">
         <f ca="1">'Town Sheet'!B$12 &amp; "'s"</f>
-        <v>Kunain's</v>
-      </c>
-      <c r="G13" s="31" t="str">
+        <v>Erehrt's</v>
+      </c>
+      <c r="G13" s="41" t="str">
         <f ca="1">'Town Sheet'!B$13 &amp; "'s"</f>
-        <v>Samuel's</v>
-      </c>
-      <c r="I13" s="31" t="str">
+        <v>Rewalt's</v>
+      </c>
+      <c r="I13" s="41" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Deepwater's</v>
-      </c>
-      <c r="K13" s="31" t="str">
+        <v>Embertalon's</v>
+      </c>
+      <c r="K13" s="41" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Stillwind's</v>
+        <v>Lonespark's</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>862</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="41" t="str">
         <f ca="1">'Town Sheet'!B$11 &amp; "'s"</f>
-        <v>Elyn's</v>
-      </c>
-      <c r="E14" s="31" t="str">
+        <v>Enelron's</v>
+      </c>
+      <c r="E14" s="41" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Winterarm's</v>
-      </c>
-      <c r="G14" s="31" t="str">
+        <v>Pyreblade's</v>
+      </c>
+      <c r="G14" s="41" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Deepwater's</v>
-      </c>
-      <c r="I14" s="31" t="str">
+        <v>Seatail's</v>
+      </c>
+      <c r="I14" s="41" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Deepwater's</v>
-      </c>
-      <c r="K14" s="31" t="str">
+        <v>Embertalon's</v>
+      </c>
+      <c r="K14" s="41" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Stillwind's</v>
+        <v>Lonespark's</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>873</v>
       </c>
-      <c r="C15" s="31" t="str">
+      <c r="C15" s="41" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Hawkcloud's</v>
-      </c>
-      <c r="E15" s="31" t="str">
+        <v>Fernshaper's</v>
+      </c>
+      <c r="E15" s="41" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Winterarm's</v>
-      </c>
-      <c r="G15" s="31" t="str">
+        <v>Pyreblade's</v>
+      </c>
+      <c r="G15" s="41" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Deepwater's</v>
-      </c>
-      <c r="I15" s="31" t="str">
+        <v>Seatail's</v>
+      </c>
+      <c r="I15" s="41" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Deepwater's</v>
-      </c>
-      <c r="K15" s="31" t="str">
+        <v>Embertalon's</v>
+      </c>
+      <c r="K15" s="41" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Stillwind's</v>
+        <v>Lonespark's</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="str">
+      <c r="A16" s="41" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Gwali's</v>
-      </c>
-      <c r="C16" s="31" t="str">
+        <v>Cece's</v>
+      </c>
+      <c r="C16" s="41" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Hawkcloud's</v>
-      </c>
-      <c r="E16" s="31" t="str">
+        <v>Fernshaper's</v>
+      </c>
+      <c r="E16" s="41" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Winterarm's</v>
-      </c>
-      <c r="G16" s="31" t="str">
+        <v>Pyreblade's</v>
+      </c>
+      <c r="G16" s="41" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Deepwater's</v>
-      </c>
-      <c r="I16" s="31" t="str">
+        <v>Seatail's</v>
+      </c>
+      <c r="I16" s="41" t="str">
         <f ca="1">'Town Sheet'!C$14 &amp; "'s"</f>
-        <v>Deepwater's</v>
-      </c>
-      <c r="K16" s="31" t="str">
+        <v>Embertalon's</v>
+      </c>
+      <c r="K16" s="41" t="str">
         <f ca="1">'Town Sheet'!C$15 &amp; "'s"</f>
-        <v>Stillwind's</v>
+        <v>Lonespark's</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="str">
+      <c r="A17" s="41" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Gwali's</v>
-      </c>
-      <c r="C17" s="31" t="str">
+        <v>Cece's</v>
+      </c>
+      <c r="C17" s="41" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Hawkcloud's</v>
-      </c>
-      <c r="E17" s="31" t="str">
+        <v>Fernshaper's</v>
+      </c>
+      <c r="E17" s="41" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Winterarm's</v>
-      </c>
-      <c r="G17" s="31" t="str">
+        <v>Pyreblade's</v>
+      </c>
+      <c r="G17" s="41" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Deepwater's</v>
+        <v>Seatail's</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="str">
+      <c r="A18" s="41" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Gwali's</v>
-      </c>
-      <c r="C18" s="31" t="str">
+        <v>Cece's</v>
+      </c>
+      <c r="C18" s="41" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Hawkcloud's</v>
-      </c>
-      <c r="E18" s="31" t="str">
+        <v>Fernshaper's</v>
+      </c>
+      <c r="E18" s="41" t="str">
         <f ca="1">'Town Sheet'!C$12 &amp; "'s"</f>
-        <v>Winterarm's</v>
-      </c>
-      <c r="G18" s="31" t="str">
+        <v>Pyreblade's</v>
+      </c>
+      <c r="G18" s="41" t="str">
         <f ca="1">'Town Sheet'!C$13 &amp; "'s"</f>
-        <v>Deepwater's</v>
+        <v>Seatail's</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="str">
+      <c r="A19" s="41" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Gwali's</v>
-      </c>
-      <c r="C19" s="31" t="str">
+        <v>Cece's</v>
+      </c>
+      <c r="C19" s="41" t="str">
         <f ca="1">'Town Sheet'!C$11 &amp; "'s"</f>
-        <v>Hawkcloud's</v>
+        <v>Fernshaper's</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="str">
+      <c r="A20" s="41" t="str">
         <f ca="1">'Town Sheet'!B$10 &amp; "'s"</f>
-        <v>Gwali's</v>
+        <v>Cece's</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="str">
+      <c r="A21" s="41" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Lonespark's</v>
+        <v>Val'haren's</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="str">
+      <c r="A22" s="41" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Lonespark's</v>
+        <v>Val'haren's</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="str">
+      <c r="A23" s="41" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Lonespark's</v>
+        <v>Val'haren's</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="str">
+      <c r="A24" s="41" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Lonespark's</v>
+        <v>Val'haren's</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="str">
+      <c r="A25" s="41" t="str">
         <f ca="1">'Town Sheet'!C$10 &amp; "'s"</f>
-        <v>Lonespark's</v>
+        <v>Val'haren's</v>
       </c>
     </row>
   </sheetData>
@@ -10547,7 +10532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10572,21 +10557,21 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(AllMagicItems!A:A&lt;&gt;""),AllMagicItems!A:A)),AllMagicItems!A:C,1,TRUE)</f>
-        <v>68000</v>
+        <v>71000</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">VLOOKUP((A3),AllMagicItems!A:E,3,TRUE)</f>
-        <v>Dust of Disappearance</v>
+        <v>Elemental Gem</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(AllMagicItems!A:A&lt;&gt;""),AllMagicItems!A:A)),AllMagicItems!A:C,1,TRUE)</f>
-        <v>178000</v>
+        <v>100000</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">VLOOKUP((A4),AllMagicItems!A:E,3,TRUE)</f>
-        <v>Rod of Lordly Might</v>
+        <v>Robe of Useful Items</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10597,21 +10582,21 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>16800</v>
+        <v>2000</v>
       </c>
       <c r="B7" t="str">
         <f ca="1">VLOOKUP((A7),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Diminution</v>
+        <v>Potion of Healing</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,LOOKUP(2,1/(Potions!A:A&lt;&gt;""),Potions!A:A)),Potions!A:C,1,TRUE)</f>
-        <v>20800</v>
+        <v>2000</v>
       </c>
       <c r="B8" t="str">
         <f ca="1">VLOOKUP((A8),Potions!A:E,3,TRUE)</f>
-        <v>Potion of Superior Healing</v>
+        <v>Potion of Healing</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -10622,15 +10607,15 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <f ca="1">RANDBETWEEN(10,30)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">PRODUCT(B11,C11)</f>
-        <v>1008</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -10640,7 +10625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12375,7 +12360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13009,7 +12994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14622,7 +14607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15377,7 +15362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19918,10 +19903,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
